--- a/database/industries/kashi/kazar/product/yearly.xlsx
+++ b/database/industries/kashi/kazar/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E18E7-EEE4-4DE0-AEBC-D9B967E80CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B98006-6A31-4DD7-8124-CD1CAC049AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -611,12 +611,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -626,7 +626,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -660,7 +660,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -694,7 +694,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,7 +726,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -868,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -988,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>18118</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>21786</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1268,7 +1268,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1278,7 +1278,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1310,7 +1310,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>26</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>18192</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>21981</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>31</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>47535</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1840,7 +1840,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>38</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1892,7 +1892,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>14</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>15</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>18</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>20</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>22</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>23</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>24</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>26</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>27</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>37</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>29</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1723966</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>30</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1252729</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>31</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>32</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>80980</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>33</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>3058239</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2428,7 +2428,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2438,7 +2438,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2448,7 +2448,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>40</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2480,7 +2480,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>14</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>16</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>18</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>21</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>22</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>23</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>25</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>26</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>27</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>37</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>29</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>94765062</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>56991447</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>31</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>32</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>10999728</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2994,7 +2994,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3004,7 +3004,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3014,7 +3014,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>44</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3046,7 +3046,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>35</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>29</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>-1212690</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>30</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>-558621</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>31</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
         <v>32</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>33</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>-1771311</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3246,7 +3246,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3256,7 +3256,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3266,7 +3266,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3298,7 +3298,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
         <v>10</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>35</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
         <v>37</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>29</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>511276</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
         <v>30</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>694108</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>31</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
         <v>32</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>80980</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>33</v>
       </c>

--- a/database/industries/kashi/kazar/product/yearly.xlsx
+++ b/database/industries/kashi/kazar/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B98006-6A31-4DD7-8124-CD1CAC049AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -163,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,10 +605,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1913,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="9">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -3319,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="9">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
